--- a/OREI_files/40-herd data/Farm Observations_CJ_TA.xlsx
+++ b/OREI_files/40-herd data/Farm Observations_CJ_TA.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c792ef73e4c0296d/Documents/OREI files and Git repo/OREI_Git/OREI_files/40-herd data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{6B11E7DA-6061-45BD-92AA-C311EB19A30D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E150B949-BD40-48A0-A571-4124D074CE52}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="13_ncr:1_{6B11E7DA-6061-45BD-92AA-C311EB19A30D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B7CB1ADF-2469-4B5D-B60A-CBAAB32E5386}"/>
   <bookViews>
-    <workbookView xWindow="9520" yWindow="360" windowWidth="10110" windowHeight="10140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Raw Data" sheetId="1" r:id="rId1"/>
-    <sheet name="Table 1" sheetId="4" r:id="rId2"/>
-    <sheet name="Back Page" sheetId="3" r:id="rId3"/>
-    <sheet name="Notes" sheetId="2" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="5" r:id="rId2"/>
+    <sheet name="Table 1" sheetId="4" r:id="rId3"/>
+    <sheet name="Back Page" sheetId="3" r:id="rId4"/>
+    <sheet name="Notes" sheetId="2" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="773" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="791" uniqueCount="254">
   <si>
     <t>Hours since last bedded</t>
   </si>
@@ -1135,6 +1136,12 @@
   </si>
   <si>
     <t>111 x 59 ft barn 1 (6549), 116 x 48 barn 2 (5568) = 12,117</t>
+  </si>
+  <si>
+    <t>lynd</t>
+  </si>
+  <si>
+    <t>4945 ft</t>
   </si>
 </sst>
 </file>
@@ -1942,9 +1949,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BA48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="AD1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AC3" sqref="AC3"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="AK1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AS25" sqref="AS25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5942,6 +5949,175 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7DFB8FE-0C51-43C0-88F6-1A7B613FE6B2}">
+  <dimension ref="A1:L15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:12" ht="80" x14ac:dyDescent="0.35">
+      <c r="B1" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>188</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>238</v>
+      </c>
+      <c r="F1" s="16" t="s">
+        <v>189</v>
+      </c>
+      <c r="G1" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" s="15" t="s">
+        <v>237</v>
+      </c>
+      <c r="J1" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="K1" s="15" t="s">
+        <v>250</v>
+      </c>
+      <c r="L1" s="15" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>252</v>
+      </c>
+      <c r="B2" s="19">
+        <v>1</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>177</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>253</v>
+      </c>
+      <c r="E2" s="20">
+        <v>459.4</v>
+      </c>
+      <c r="F2" s="20"/>
+      <c r="G2" s="19" t="s">
+        <v>178</v>
+      </c>
+      <c r="H2" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="I2" s="19">
+        <f>E2/90</f>
+        <v>5.1044444444444439</v>
+      </c>
+      <c r="J2" s="19" t="s">
+        <v>179</v>
+      </c>
+      <c r="K2" s="19"/>
+      <c r="L2" s="19" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="D4">
+        <f>115*43</f>
+        <v>4945</v>
+      </c>
+      <c r="E4">
+        <f>D4/10.764</f>
+        <v>459.40170940170941</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="F7">
+        <f>90*9.29</f>
+        <v>836.09999999999991</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="F8">
+        <f>90*5.1</f>
+        <v>458.99999999999994</v>
+      </c>
+      <c r="G8">
+        <f>F7/F8</f>
+        <v>1.8215686274509804</v>
+      </c>
+      <c r="J8">
+        <f>80*9.29</f>
+        <v>743.19999999999993</v>
+      </c>
+      <c r="K8">
+        <f>J8/J9</f>
+        <v>1.3865671641791044</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="J9">
+        <f>80*6.7</f>
+        <v>536</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="F11">
+        <f>55*9.29</f>
+        <v>510.94999999999993</v>
+      </c>
+      <c r="G11">
+        <f>F11/F12</f>
+        <v>0.91078431372549007</v>
+      </c>
+      <c r="J11">
+        <f>7.9*35</f>
+        <v>276.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="F12">
+        <f>55*10.2</f>
+        <v>561</v>
+      </c>
+      <c r="J12">
+        <f>35*6.3</f>
+        <v>220.5</v>
+      </c>
+      <c r="K12">
+        <f>J11/J12</f>
+        <v>1.253968253968254</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="J14">
+        <f>44*7.9</f>
+        <v>347.6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="J15">
+        <f>44*7.7</f>
+        <v>338.8</v>
+      </c>
+      <c r="K15">
+        <f>J14/J15</f>
+        <v>1.025974025974026</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75140ADA-47D5-4629-AED2-0E349358E151}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -6342,7 +6518,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A3:F93"/>
   <sheetViews>
@@ -7036,7 +7212,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C5"/>
   <sheetViews>
